--- a/Bahan/data pembina mahasiswa.xlsx
+++ b/Bahan/data pembina mahasiswa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SMT 8\MY_SKRIPSI\Bahan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -107,9 +107,6 @@
     <t>025167893046</t>
   </si>
   <si>
-    <t>025178492098</t>
-  </si>
-  <si>
     <t>0856875807890</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>085776273423</t>
   </si>
   <si>
-    <t>08864257341</t>
-  </si>
-  <si>
     <t>089661532431</t>
   </si>
   <si>
@@ -173,7 +167,7 @@
     <t>089798612835</t>
   </si>
   <si>
-    <t>DATA PEMBINA MAHASISWA 2018/2019</t>
+    <t>DATA PEMBINA MAHASISWA</t>
   </si>
 </sst>
 </file>
@@ -533,7 +527,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -646,8 +640,8 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
+      <c r="D9" s="2">
+        <v>85283923563</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,13 +719,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,13 +733,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
+      <c r="D16" s="2">
+        <v>8864257341</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,13 +747,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,13 +761,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,13 +775,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,13 +789,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,13 +803,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
